--- a/EarlyRetirementsUSA/statemerge.xlsx
+++ b/EarlyRetirementsUSA/statemerge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\UC Davis\Writings\Labor Shortage\US data\rawdata\JOLTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\EarlyRetirementsUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5480DE-4B6C-4097-88C8-17FD3E19176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7A92B-241F-40BC-B612-227281D92A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>Alabama</t>
   </si>
@@ -185,13 +185,69 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>province_state</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>Guam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond Princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grand Princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,6 +256,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -224,8 +287,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -499,10 +563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,616 +574,1115 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D1" t="str">
-        <f>_xlfn.CONCAT("gen statemerge=",B1," if state==""",A1,"""")</f>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("gen statemerge=",B2," if state==""",A2,"""")</f>
         <v>gen statemerge=1 if state=="Alabama"</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT("replace statemerge=",B2," if state==""",A2,"""")</f>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("replace statemerge=",B3," if state==""",A3,"""")</f>
         <v>replace statemerge=2 if state=="Alaska"</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D51" si="0">_xlfn.CONCAT("replace statemerge=",B3," if state==""",A3,"""")</f>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D52" si="0">_xlfn.CONCAT("replace statemerge=",B4," if state==""",A4,"""")</f>
         <v>replace statemerge=4 if state=="Arizona"</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=5 if state=="Arkansas"</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=6 if state=="California"</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=8 if state=="Colorado"</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=9 if state=="Connecticut"</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=10 if state=="Delaware"</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=12 if state=="Florida"</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=13 if state=="Georgia"</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>15</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=15 if state=="Hawaii"</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=16 if state=="Idaho"</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>17</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=17 if state=="Illinois"</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=18 if state=="Indiana"</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>19</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=19 if state=="Iowa"</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>20</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=20 if state=="Kansas"</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>21</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=21 if state=="Kentucky"</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>22</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=22 if state=="Louisiana"</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>23</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=23 if state=="Maine"</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="J20">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>24</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=24 if state=="Maryland"</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>25</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=25 if state=="Massachusetts"</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>26</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=26 if state=="Michigan"</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>27</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=27 if state=="Minnesota"</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="J24">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>28</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=28 if state=="Mississippi"</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>29</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=29 if state=="Missouri"</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="J26">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>30</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=30 if state=="Montana"</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=31 if state=="Nebraska"</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="J28">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>32</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=32 if state=="Nevada"</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="J29">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>33</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=33 if state=="NewHampshire"</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="J30">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>34</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=34 if state=="NewJersey"</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="J31">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>35</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=35 if state=="NewMexico"</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="J32">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>36</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=36 if state=="NewYork"</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="J33">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>37</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=37 if state=="NorthCarolina"</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>38</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=38 if state=="NorthDakota"</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="J35">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>39</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=39 if state=="Ohio"</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="J36">
+        <v>39</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>40</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=40 if state=="Oklahoma"</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>41</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=41 if state=="Oregon"</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="J38">
+        <v>41</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>42</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=42 if state=="Pennsylvania"</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J39">
+        <v>42</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>44</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=44 if state=="RhodeIsland"</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>45</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=45 if state=="SouthCarolina"</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="J41">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>46</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=46 if state=="SouthDakota"</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="J42">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>47</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=47 if state=="Tennessee"</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="J43">
+        <v>47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>48</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=48 if state=="Texas"</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="J44">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>49</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=49 if state=="Utah"</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="J45">
+        <v>49</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>50</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=50 if state=="Vermont"</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="J46">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>51</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=51 if state=="Virginia"</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="J47">
+        <v>51</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>53</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=53 if state=="Washington"</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="J48">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>54</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=54 if state=="WestVirginia"</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="J49">
+        <v>54</v>
+      </c>
+      <c r="K49" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>55</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=55 if state=="Wisconsin"</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="J50">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>56</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=56 if state=="Wyoming"</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="J51">
+        <v>56</v>
+      </c>
+      <c r="K51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=0 if state=="TotalUS"</v>
+      </c>
+      <c r="J52">
+        <v>66</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>69</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>72</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>888</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>999</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/EarlyRetirementsUSA/statemerge.xlsx
+++ b/EarlyRetirementsUSA/statemerge.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\EarlyRetirementsUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7A92B-241F-40BC-B612-227281D92A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD6903-1993-48A8-883F-D3E32A67005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="8595" windowWidth="2040" windowHeight="6210" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,8 +566,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1689,4 +1690,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BBB6B-EA6B-4022-B510-0D0F30B5EA6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>